--- a/test/e2e-generate/preserve-existing/out.xlsx
+++ b/test/e2e-generate/preserve-existing/out.xlsx
@@ -1916,7 +1916,7 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" t="s" s="9">
         <v>9</v>
       </c>
       <c r="E2" t="s">
@@ -1966,7 +1966,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D6" s="10" t="s">
+      <c r="D6" t="s" s="10">
         <v>10</v>
       </c>
       <c r="E6" s="8">
@@ -2094,7 +2094,7 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" t="s" s="11">
         <v>11</v>
       </c>
     </row>
@@ -2189,7 +2189,7 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="b">
+      <c r="A2">
         <f>TRUE</f>
       </c>
     </row>
@@ -2257,27 +2257,27 @@
       <c r="A1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" t="s" s="4">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="13" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s" s="3">
         <v>1</v>
       </c>
       <c r="C2" s="4"/>
     </row>
     <row r="3" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" t="s" s="2">
         <v>14</v>
       </c>
       <c r="C3" s="3"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" t="s" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" t="s" s="6">
         <v>3</v>
       </c>
     </row>

--- a/test/e2e-generate/preserve-existing/out.xlsx
+++ b/test/e2e-generate/preserve-existing/out.xlsx
@@ -1899,10 +1899,6 @@
     <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
-  <cols>
-    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -2242,11 +2238,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="4"/>
-  </cols>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.5703125" style="13" bestFit="1" customWidth="1"/>
